--- a/scrapped_data/scraped_exhibitor_details.xlsx
+++ b/scrapped_data/scraped_exhibitor_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,34 +473,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/cjl-lesiure-vehicles-ltd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>www.cjlleisure.co.uk</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/kaktus-adventure-vans-ltd/kaktus-adventure-vans-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/cmc-reimo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>www.kaktusvans.co.uk</t>
+          <t>www.conceptmulti-car.co.uk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>This is true freedom. Just you, your passion and the open road. Push yourself and your horizons, live life to its fullest.</t>
+          <t>CMC Campers is a specialist manufacturer of Volkswagen, Ford &amp; Renault based campervans. We are proud to be one of only a select few campervan manufacturers in the UK to be fully recognised and have direct contracts with Volkswagen, Ford &amp; Renault. All of our new campervans are Type Approved and come with a 3-year warranty to give piece of mind.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -510,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>info@cmccampers.co.uk</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -520,22 +536,26 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>+441303261062</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/knaus-weinsberg</t>
+          <t>https://mcshow.co.uk/exhibitor-list/coachman-caravan-company-ltd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>www.knaus-uk.co.uk</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>www.coachman.co.uk</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Welcome to Coachman</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>UK</t>
@@ -560,7 +580,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/laika/laika</t>
+          <t>https://mcshow.co.uk/dethleffs/dethleffs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -577,54 +597,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/lowdhams</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>www.lowdhams.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/exhibitor-list/devon-conversions-ltd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/malibu-gmbh-kg-co</t>
+          <t>https://mcshow.co.uk/exhibitor-list/dreamer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>www.malibu-carthago.com</t>
+          <t>www.rapido.fr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A cut above the rest: The motorhome van</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,98 +651,78 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/marquis-motorhomes-caravans/marquis-motorhomes-caravans</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>https://mcshow.co.uk/exhibitor-list/ecowagon</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>www.ecowagon.co.uk</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Click here to view our 2021/22 Expo+ BF Goodrich Boardmasters demo van. We think you’ll enjoy it. See the “Best Ever VW Camper” What Motorhome article.</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>sales@ecowagon.co.uk</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>01209843654</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/mega-mobil-camper-vans/mega-mobil-camper-vans</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>www.megamobil.si</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/elddis/elddis</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/moto-trek-ltd</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>www.moto-trek.co.uk</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Moto-Trek, part of the Trek-Group, is a premier manufacturer of motorhomes based in the United Kingdom. Launched in 2012, we ensure every product meets the highest standards of craftsmanship and reliability.</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/erwin-hymer-group-ltd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/murvi-motorcaravans-ltd</t>
+          <t>https://mcshow.co.uk/etrusco/etrusco</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -755,6 +735,477 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/globe-traveller</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>www.globe-traveller.eu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Discover Globe-Traveller's camper vans, where elegant design meets practical features. Choose from our ten diverse models to suit your travel lifestyle.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/globecar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>www.smcmotorhomes.co.uk</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(0) Saved</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>&lt;COG:COGDealerRepeater_V1 ID=</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/hillside-leisure-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>www.hillsideleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>With up to £6000 off until 30th November, now is a great time to grab a deal!</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>sales@hillsideleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>01332207976</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/ih-motorhomes-ltd/ih-motorhomes-ltd</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>www.ihmotorhomes.com</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>As a luxury motorhome manufacturer, we specialise in van conversions using bases from luxury campervan companies such as Iveco, VW and Fiat. Our van conversions are crafted by a single craftsman who utilises decades-worth of industry knowledge to design and construct our very own range of luxury motorhomes. We are no ordinary van conversion manufacturer – our production process enables each owner to embed their own personality and individuality within their motorhome, ensuring we can deliver a quality campervan to each and every customer.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NicolaHartley@ihmotorhomes.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>447811360772</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/jerba-campervans-ltd</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>www.jerbacampervans.co.uk</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>High Quality Conversions For A High Quality Adventure.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>+4401620890374</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/kaktus-adventure-vans-ltd/kaktus-adventure-vans-ltd</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>www.kaktusvans.co.uk</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>This is true freedom. Just you, your passion and the open road. Push yourself and your horizons, live life to its fullest.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/knaus-weinsberg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>www.knaus-uk.co.uk</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/laika/laika</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/lowdhams</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>www.lowdhams.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/malibu-gmbh-kg-co</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>www.malibu-carthago.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A cut above the rest: The motorhome van</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/marquis-motorhomes-caravans/marquis-motorhomes-caravans</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/mega-mobil-camper-vans/mega-mobil-camper-vans</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>www.megamobil.si</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/moto-trek-ltd</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>www.moto-trek.co.uk</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Moto-Trek, part of the Trek-Group, is a premier manufacturer of motorhomes based in the United Kingdom. Launched in 2012, we ensure every product meets the highest standards of craftsmanship and reliability.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/murvi-motorcaravans-ltd</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scrapped_data/scraped_exhibitor_details.xlsx
+++ b/scrapped_data/scraped_exhibitor_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Website URL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Industry Specialized</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Email 1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Email 2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Telephone</t>
         </is>
@@ -473,23 +478,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/cjl-lesiure-vehicles-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/tingdene-parks-ltd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>www.cjlleisure.co.uk</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Tingdene Group</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>www.tingdene.net</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>The Tingdene Group began with Matthew Gibbard forming Tingdene Developments in 1998 when he saw the advantages of diversifying the business into owning, developing and managing Residential Parks for the retirement community to incorporate the homes that his father was manufacturing.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -499,34 +508,39 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>info@tingdene.net</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>01933 551627</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/cmc-reimo</t>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/adria</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>www.conceptmulti-car.co.uk</t>
+          <t>Adria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CMC Campers is a specialist manufacturer of Volkswagen, Ford &amp; Renault based campervans. We are proud to be one of only a select few campervan manufacturers in the UK to be fully recognised and have direct contracts with Volkswagen, Ford &amp; Renault. All of our new campervans are Type Approved and come with a 3-year warranty to give piece of mind.</t>
+          <t>www.adria.co.uk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Inspired new campervans, with a distinctive genetic code.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>info@cmccampers.co.uk</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,34 +550,39 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+441303261062</t>
+          <t>info@adria.co.uk</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Not listed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/coachman-caravan-company-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/auto-sleepers-group</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>www.coachman.co.uk</t>
+          <t>Auto-Sleepers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Welcome to Coachman</t>
+          <t>auto-sleepers.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Campervans</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -572,6 +591,11 @@
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>info@auto-sleepers.com</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Not listed</t>
         </is>
@@ -580,61 +604,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/dethleffs/dethleffs</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>https://mcshow.co.uk/exhibitor-list/bailey-of-bristol</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bailey of Bristol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>www.baileyofbristol.co.uk</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>4 models</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>info@baileyofbristol.co.uk</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/devon-conversions-ltd</t>
+          <t>https://mcshow.co.uk/burstner/burstner</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/dreamer</t>
+          <t>https://mcshow.co.uk/exhibitor-list/carthago-motorhomes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>www.rapido.fr</t>
+          <t>Carthago Motorhomes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>www.carthago.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Lightweight/Comfort</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -643,6 +693,11 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>info@carthago.com</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Not listed</t>
         </is>
@@ -651,152 +706,189 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/ecowagon</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>www.ecowagon.co.uk</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Click here to view our 2021/22 Expo+ BF Goodrich Boardmasters demo van. We think you’ll enjoy it. See the “Best Ever VW Camper” What Motorhome article.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/exhibitor-list/chausson</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sales@ecowagon.co.uk</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>01209843654</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/elddis/elddis</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+          <t>https://mcshow.co.uk/exhibitor-list/coachbuilt-gb-ltd</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coachbuilt GB Ltd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>www.coachbuiltgb.co.uk</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>​</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>info@coachbuiltgb.co.uk</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>info@coachbuiltgb.co.uk</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/erwin-hymer-group-ltd</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>https://mcshow.co.uk/exhibitor-list/coachman-caravan-company-ltd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coachman Caravan Company Ltd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>www.coachman.co.uk</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>Welcome to Coachman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>info@coachman.co.uk</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/etrusco/etrusco</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+          <t>https://mcshow.co.uk/couplands-worksop-louth/couplands-worksop-louth</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Couplands - Worksop &amp; Lincoln</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>www.couplandscaravans.co.uk</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>Couplands are pleased to offer the very best in new caravans as well as a range of approved used caravans.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>info@couplandscaravans.co.uk</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>01507 603496</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/globe-traveller</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>www.globe-traveller.eu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Discover Globe-Traveller's camper vans, where elegant design meets practical features. Choose from our ten diverse models to suit your travel lifestyle.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/dethleffs/dethleffs</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/globecar</t>
+          <t>https://mcshow.co.uk/exhibitor-list/don-amott-caravans-motorhomes</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>www.smcmotorhomes.co.uk</t>
+          <t>Don Amott Caravans &amp; Motorhomes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(0) Saved</t>
+          <t>www.leisurekingdom.co.uk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>With Don Amott</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -806,162 +898,131 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>&lt;COG:COGDealerRepeater_V1 ID=</t>
+          <t>info@leisurekingdom.co.uk</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+44 1283 732193</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/hillside-leisure-uk-ltd</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>www.hillsideleisure.co.uk</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>With up to £6000 off until 30th November, now is a great time to grab a deal!</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/elddis/elddis</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sales@hillsideleisure.co.uk</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>01332207976</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/ih-motorhomes-ltd/ih-motorhomes-ltd</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>www.ihmotorhomes.com</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>As a luxury motorhome manufacturer, we specialise in van conversions using bases from luxury campervan companies such as Iveco, VW and Fiat. Our van conversions are crafted by a single craftsman who utilises decades-worth of industry knowledge to design and construct our very own range of luxury motorhomes. We are no ordinary van conversion manufacturer – our production process enables each owner to embed their own personality and individuality within their motorhome, ensuring we can deliver a quality campervan to each and every customer.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/erwin-hymer-group-ltd</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NicolaHartley@ihmotorhomes.com</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>447811360772</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/jerba-campervans-ltd</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>www.jerbacampervans.co.uk</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>High Quality Conversions For A High Quality Adventure.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/etrusco/etrusco</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>+4401620890374</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/eura-mobil</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eura Mobil</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>www.motorhomesltd.co.uk</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>View our Featured Products</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>sales@mandcltd.com</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>info@motorhomesltd.co.uk</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>01482448157</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/kaktus-adventure-vans-ltd/kaktus-adventure-vans-ltd</t>
+          <t>https://mcshow.co.uk/fleurette-florium/fleurette-florium</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>www.kaktusvans.co.uk</t>
+          <t>Fleurette - Florium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>This is true freedom. Just you, your passion and the open road. Push yourself and your horizons, live life to its fullest.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>www.fleurette-florium.fr</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -970,6 +1031,11 @@
         </is>
       </c>
       <c r="G18" t="inlineStr">
+        <is>
+          <t>info@fleurette-florium.fr</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Not listed</t>
         </is>
@@ -978,77 +1044,87 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/knaus-weinsberg</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>www.knaus-uk.co.uk</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/exhibitor-list/frankia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/laika/laika</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+          <t>https://mcshow.co.uk/giottiline/giottiline</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Giottiline</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>www.giottiline.com</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+          <t>Be informed that the video may be non-visible in some countries of Italy</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>info@giottiline.com</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>info@giottiline.com</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>+390577904023</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/lowdhams</t>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/globe-traveller</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>www.lowdhams.com</t>
+          <t>Globe Traveller</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>www.globe-traveller.eu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Discover Globe-Traveller's camper vans, where elegant design meets practical features. Choose from our ten diverse models to suit your travel lifestyle.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1057,6 +1133,11 @@
         </is>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>info@globe-traveller.eu</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Not listed</t>
         </is>
@@ -1065,27 +1146,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/malibu-gmbh-kg-co</t>
+          <t>https://mcshow.co.uk/exhibitor-list/grantham-caravans</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>www.malibu-carthago.com</t>
+          <t>Grantham's</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A cut above the rest: The motorhome van</t>
+          <t>www.granthamcaravans.co.uk</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Spittlegate Level, Grantham, Lincolnshire, NG31 7UH</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1095,88 +1176,99 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>info@granthamcaravans.co.uk</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>01476%20560599</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/marquis-motorhomes-caravans/marquis-motorhomes-caravans</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+          <t>https://mcshow.co.uk/exhibitor-list/hobby-gb-ireland</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hobby GB &amp; Ireland</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>www.hobby-caravans.co.uk</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+          <t>Which Hobby model is the perfect match for the way you travel? Find and configure the vehicle of your dreams from Hobby Caravan’s wide range in a few simple clicks.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>info@hobby-caravans.co.uk</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/mega-mobil-camper-vans/mega-mobil-camper-vans</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>www.megamobil.si</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>https://mcshow.co.uk/hymer-eriba/hymer-eriba</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Not listed</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/moto-trek-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/itineo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>www.moto-trek.co.uk</t>
+          <t>Itineo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Moto-Trek, part of the Trek-Group, is a premier manufacturer of motorhomes based in the United Kingdom. Launched in 2012, we ensure every product meets the highest standards of craftsmanship and reliability.</t>
+          <t>www.rapido.fr</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Not listed</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1185,6 +1277,11 @@
         </is>
       </c>
       <c r="G25" t="inlineStr">
+        <is>
+          <t>info@rapido.fr</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Not listed</t>
         </is>
@@ -1193,19 +1290,4626 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/murvi-motorcaravans-ltd</t>
+          <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/knaus-weinsberg</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Knaus Weinsberg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>www.knaus-uk.co.uk</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>info@knaus-uk.co.uk</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/laika/laika</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/le-voyager</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/lowdhams</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Lowdhams</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>www.lowdhams.com</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>info@lowdhams.com</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/malibu-gmbh-kg-co</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Malibu GmbH KG &amp; Co</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>www.malibu-carthago.com</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A cut above the rest: The motorhome van</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>info@malibu-carthago.com</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/malibu-</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Malibu shown by Premium Motorhomes</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>www.premiummotorhomes.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>sales@premium-motorhomes.co.uk</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>info@premiummotorhomes.com</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+44(0)1302 710 453</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/marquis-motorhomes-caravans/marquis-motorhomes-caravans</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/mini-free-style/mini-free-style</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/morello</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Morelo</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>www.premiummotorhomes.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sales@premium-motorhomes.co.uk</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>info@premiummotorhomes.com</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+44(0)1302 710 453</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/motorhomes-caravans-ltd/motorhomes-caravans-ltd</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Motorhomes &amp; Caravans Ltd</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>www.motorhomesltd.co.uk</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>View our Featured Products</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sales@mandcltd.com</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>info@motorhomesltd.co.uk</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>01482448157</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/moto-trek-ltd</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Moto-Trek Ltd</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>www.moto-trek.co.uk</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Moto-Trek, part of the Trek-Group, is a premier manufacturer of motorhomes based in the United Kingdom. Launched in 2012, we ensure every product meets the highest standards of craftsmanship and reliability.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>info@moto-trek.co.uk</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/panama/panama</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/pilote</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/rapido</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Rapido</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>www.rapido.fr</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>info@rapido.fr</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/richard-baldwin-motorhomes-llp</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Richard Baldwin Motorhomes LLP</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>www.rbm.co.uk</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>We are a family run, family owned business with a rich heritage. Our service is renowned and has been award winning consistently over the last 25 years and counting. We are recognised by customers and industry insiders alike as being great innovators, not least with our multi award winning Special Edition Ranges. We hold what we feel are the two best British franchises in Auto-Trail &amp; Elddis and we have held these two franchises consistently almost since we started. We are specialist in motorhomes sales only, we are not a caravan dealer who sells a few motorhomes, or a car dealer who sells a few motorhomes, or a hire company that sells their ex rental fleet. This means that our expertise lies purely in motorhomes.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>sales@rbm.co.uk</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>info@rbm.co.uk</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>01422364222</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/rimor</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/rollerteam</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/spinney-motorhomes-ltd</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/swift-group-ltd</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Swift Group Ltd</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>www.swiftgroup.co.uk</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SMART Construction</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>info@swiftgroup.co.uk</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/wandahome-south-cave</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Wandahome South Cave</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>www.wandahome.online</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MENU</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>info@wandahome.online</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>01430424342</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/alde-international-uk</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alde International UK</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>www.alde.co.uk</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Alde – The King Of Comfort</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>info@alde.co.uk</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>info@alde.co.uk</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+44(0)1933 677765</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/al-ko-kober-ltd</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AL-KO Kober Ltd</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>www.ep-hydraulics.co.uk</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>The E&amp;P Hydraulics Levelsystem for motorhomes</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>info@ep-hydraulics.co.uk</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>info@ep-hydraulics.co.uk</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>01254 297 785</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/amplo/amplo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Amplo</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>www.towtal.co.uk</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MOTORHOME ACCESSORY SPECIALIST</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>info@towtal.co.uk</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>info@towtal.co.uk</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/bartolacci-design/bartolacci-design</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Bartolacci Design</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>www.bartolaccidesign.it</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Camper, Vans, Caravans and RVs</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>info@bartolaccidesign.it</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/bilstein/bilstein</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Bilstein</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>www.bilstein.com</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>info@bilstein.com</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/e-t-riddiough/e-t-riddiough</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exglo-uk/exglo-uk</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/grove-products-ltd</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/powrtouch-caravan-movers</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Powrtouch Caravan Movers</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>www.trumauk.com</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>The new smart A4 mover for double-axle vehicles</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>info@trumauk.com</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/propex-heating-and-leisure-ltd</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Propex Heating and Leisure Ltd</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>www.propexheatsource.co.uk</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Blown air space heaters</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>info@propexheatsource.co.uk</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/scan-terieur-limited</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Scan-Terieur Limited</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>www.scan-terieur.com</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Forgot Password</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>info@scan-terieur.com</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/sky-up-s-r-l/sky-up-s-r-l</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sky Up S.r.l</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>www.sky-up.it</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Il Tetto Sollevabile</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>info@sky-up.it</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>info@sky-up.it</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/towtal</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TOWtal</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>www.towtal.co.uk</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MOTORHOME ACCESSORY SPECIALIST</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>info@towtal.co.uk</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>info@towtal.co.uk</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/truma-limited</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Truma Limited</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>www.trumauk.com</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>The new smart A4 mover for double-axle vehicles</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>info@trumauk.com</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/vb-airsuspension-uk-ltd/vb-airsuspension-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>VB - Airsuspension UK Ltd</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>www.vbairsuspension.com</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>As a leading company undergoing rapid growth, we want people all across the globe to benefit from our premium suspension applications and (air) suspension systems. This ensures greater comfort, increased stability, optimum driveability and useful functionalities.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>?to=&amp;body=site.social.share.email_text,&amp;subject=Go to this website</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>info@vbairsuspension.com</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/verendus-systems/verendus-systems</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Verendus Systems</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>www.verendus.co.uk</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Discover how motorhome dealer Pullingers searched for a quicker, more comprehensive dealer management system as their business evolved. Learn about their journey with Verendus to streamlined operations, from sales to workshop service.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>info@verendus.se</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>info@verendus.co.uk</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/wallas-uk</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Wallas UK</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>www.campervanheating.co.uk</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>The WALLAS XC DUO is a simple combined cooking and heating solution, designed for camper van use.This single appliance provides a ceramic cooking hob and efficient heater operating on diesel fuel from the vehicle’s own tank.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>sales@kuranda.co.uk</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>info@campervanheating.co.uk</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>01663 734800</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/webasto</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Webasto</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>www.webasto.co.uk</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Efficient and reliable: tailor-made refrigeration solutions from Webasto allow for transportation at the right temperature.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>info@webasto.co.uk</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/whale-mastervolt/whale-mastervolt</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Whale &amp; Mastervolt</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>www.whale.navico.com</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>WHALE SYSTEMS</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>info@whale.navico.com</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/camperlands-ltd/</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Camperlands Ltd</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>www.camperlands.co.uk</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Welcome to the Camperlands Website. Established in 1968 Camperlands is one of the UK's leading retailers of camping equipment and outdoor accessories. Our Website includes a comprehensive and secure online shopping facility, which offers a massive selection of the camping, motorhome and caravan accessories,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>info@camperlands.co.uk</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>01619988523</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/opus-camper/</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Opus Camper</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>www.opuscamper.co.uk</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>enquiries@opuscamper.co.uk</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>info@opuscamper.co.uk</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/pennine-outdoor-leisure-ltd/</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Pennine Outdoor Leisure Ltd</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>www.pennineoutdoorleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Please be advised that we can offer a pay back option on only Pennine or Conway Folding Campers from 10 years old to new.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>info@pennineoutdoorleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/venter-trailers-uk-ltd/</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/venter-trailers-uk-ltd/venter-trailers-uk-ltd/</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/acceo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Acceo</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>www.acceo.org</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ACCEO is the Association of Caravan and Camping Exempted Organisations. We represent Caravan and Camping Clubs that hold a Certificate of Exemption issued by one of three authorities – Natural England which is an executive public body sponsored by DEFRA (The Department for Environment, Food and Rural Activities), or The Welsh Assembly Government (Planning Division), or The Scottish Government (Housing Markets Supply Division).</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>nationalparks@acceo.org</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>info@acceo.org</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/ad-gifts-gb/ad-gifts-gb</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/ahmeds-leathers-ltd</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/alzheimer-s-society/alzheimer-s-society</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Alzheimer's Society</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>www.alzheimers.org.uk</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Together we can bring dementia out from behind closed doors.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>info@alzheimers.org.uk</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/golden-curl/golden-curl</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/approved-workshop-scheme-aws/approved-workshop-scheme-aws</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Approved Workshop Scheme - AWS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>www.approvedworkshops.co.uk</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>You don't need to travel far to find a reliable service.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>info@approvedworkshops.co.uk</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>info@approvedworkshops.co.uk</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-flavours-brownie/the-flavours-brownie</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/auto-finance-online/auto-finance-online</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/autoglym</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Autoglym</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>www.autoglym.com</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>JavaScript seems to be disabled in your browser.
+                        For the best experience on our site, be sure to turn on Javascript in your browser.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>info@autoglym.com</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/bella-duke/bella-duke</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Bella &amp; Duke</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>www.bellaandduke.com</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Explore Dog</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>hello@bellaandduke.com?subject=FAO%3A%20Customer%20Care%20Team%20-%20Website%20Email%20Enquiry</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>info@bellaandduke.com</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/berghoff-worldwide-uk</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BergHOFF Worldwide GB</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>www.londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>The BergHOFF Eurocast range of cookware comprises some of the latest technology in lightweight, fat-free, non-stick cookware with detachable handles and oven proof glass lids. This exquisite and versatile range has been designed to deliver a product that provides its users with a means to healthy cooking on a PFOA and toxic free surface that is suitable for all hobs including induction!</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>info@londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/berghoff-x5-handheld-food-processor</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BergHOFF X5 Handheld Food Processor</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>www.lcctvproducts.com</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>The BergHOFF Eurocast range of cookware comprises some of the latest technology in lightweight, fat-free, non-stick cookware with detachable handles and oven proof glass lids. This exquisite and versatile range has been designed to deliver a product that provides its users with a means to healthy cooking on a PFOA and toxic free surface that is suitable for all hobs including induction!</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>info@lcctvproducts.com</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/brit-stops</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Brit Stops</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>www.britstops.com</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>info@britstops.com</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/brompton-bicyles/brompton-bicyles</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Brompton Bicycle</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>www.brompton.com</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Please select</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>info@brompton.com</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/butternut-box/butternut-box</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Butternut Box</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>www.butternutbox.com</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Log in</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>info@butternutbox.com</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/camperlands-ltd</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Camperlands Ltd</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>www.camperlands.co.uk</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Welcome to the Camperlands Website. Established in 1968 Camperlands is one of the UK's leading retailers of camping equipment and outdoor accessories. Our Website includes a comprehensive and secure online shopping facility, which offers a massive selection of the camping, motorhome and caravan accessories,</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>info@camperlands.co.uk</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>01619988523</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-camping-caravanning-club/the-camping-caravanning-club</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Camping &amp; Caravanning Club</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>www.campingandcaravanningclub.co.uk</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Search and filter by pitch type, facilities, and more to find your perfect location</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>info@campingandcaravanningclub.co.uk</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-caravan-motorhome-club/the-caravan-motorhome-club</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Caravan &amp; Motorhome Club</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>www.caravanclub.co.uk</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Caravan and  Motorhome Club</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>info@caravanclub.co.uk</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/caravan-finder/caravan-finder</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Caravan Finder</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>www.caravanfinder.co.uk</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Over the past 20 years over 180 caravan and motorhome dealers across the UK have joined Caravan Finder to display their entire stock over the internet.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>info@caravanfinder.co.uk</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/caravan-guard-ltd</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Caravan Guard Ltd</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>www.caravanguard.co.uk</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>You can also call us on 01422 396 769</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>info@caravanguard.co.uk</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>01422396769</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/celtic-spirit-co</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Celtic Spirit Co</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>www.celticspirit.co.uk</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Can we see some ID please? It's part of our commitment to responsible drinking.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>info@celticspirit.co.uk</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/cl9ud</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/cris/cris</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CRiS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>www.cris.co.uk</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Before you make a purchase, a CRiS Check will:</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>info@cris.co.uk</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0203 282 1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/crumbs-away-ltd</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Crumbs Away Ltd</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>www.crumbsaway.co.uk</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ladybird - Double Roller brushes</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>info@crumbsaway.co.uk</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/steprightorthotics</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/davinci-furniture-limited</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DaVinci Furniture Limited</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>www.davincifurniture.co.uk</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>With a range of stunning, bold designs, our Chesterfield sofas are timeless. Take a seat! We’ll help to find a sofa that truly matches your style - whether that’s traditional, contemporary or entirely unique.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sales@davincifurniture.co.uk</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>info@davincifurniture.co.uk</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>01527864106</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/ddipp/ddipp</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ddipp</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>www.ddipp.me</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Your subtotal today is $-.--. Tax included and shipping calculated at checkout.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>info@ddipp.me</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>+441273950090</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/diamondbrite</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Diamondbrite</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>www.diamondbrite.co.uk</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>We manufacture a range of professional use aftermarket products, including our two- stage nano Ceramic paint, fabric and leather protection system as well as our new Advanced Ceramic system. Our products are sold throughout the UK and abroad, and can add value to customers vehicles.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>webshop@jewelultra.com</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>info@diamondbrite.co.uk</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>+441622815679</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/eden-garden-equipment/eden-garden-equipment</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Eden Garden Equipment</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>www.edengardenequipment.com</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>info@edengardenequipment.com</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>info@edengardenequipment.com</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/estarli/estarli</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Estarli</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>www.estarli.co.uk</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>info@estarli.co.uk</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/renapur-/renapur-</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Eternal Skincare</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>www.renapur.com</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>01903 893990</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>info@renapur.com</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>info@renapur.com</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>01903 893990</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/flapjackery-ltd/flapjackery-ltd</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Flapjackery Ltd</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>www.flapjackery.co.uk</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>£0.00
+(0 Items)
+Checkout</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>info@flapjackery.co.uk</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/ducksoup-cornish-made</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Go Dicky Go</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>www.dickybag.com</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Call01637 874 849</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>info@dickybag.com</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>+441637874849</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/arkay-sales/arkay-sales</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Groomit Pet Range</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>www.arkaysales.com</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Coming soon.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>info@arkaysales.com</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/croci-collective-ltd</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/hot-tubs-living</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Hot Tubs &amp; Living</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>www.softubuk.com</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Coronavirus (COVID-19): We’re still taking orders and delivering to all our customers. Find out more</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>info@softubuk.com</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/isuzu-uk-ltd/isuzu-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Isuzu (UK) Ltd</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>www.isuzu.co.uk</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>info@isuzu.co.uk</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/jofli-bear</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Jofli Bear</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>www.jofli.com</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Jofli is not just a bear and not just for children. He has a diary inside his backpack and an online journal for you to record all the wonderful memories you create together along the 'Journey of Life'.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>info@jofli.com</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/kin-toffee-vodka</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>KIN Toffee Vodka</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>www.kinvodka.co.uk</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Our deliciously smooth original vodka spirit blended with rich caramel tones and finished with a subtle kick - for good times with kith and kin.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>websales@kinvodka.co.uk</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>info@kinvodka.co.uk</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/luggie-scooters/luggie-scooters</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Luggie Scooters</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>www.luggiescooters.com</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>CALL US FREE TODAY</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>info@luggiescooters.com</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0800 012 4258</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/macmillan-cancer-support</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Macmillan Cancer Support</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>www.macmillan.org.uk</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>We believe no call for cancer support should go unanswered. Make a donation today and whatever you give will go directly towards funding our Macmillan Support Line.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>info@macmillan.org.uk</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>08088080000</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/magic-knife</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Magic Knife</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>www.magic-knife.co.uk</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>With ever-increasing reliance on IT and Internet based technologies, Random Digit have a range of services to help your business. 
+    Our professional team can help you achieve corporate levels of service without having to incur the costs of staff, equipment and continuous training.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>info@magic-knife.co.uk</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/magnetic-therapy</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/mary-s-cupcakes/mary-s-cupcakes</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mary's Treat Day</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>www.maryscupcakes.co.uk</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>info@maryscupcakes.co.uk</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/maxburn-fitness-plate</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MAXhealth Fitness Board</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>www.londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>The BergHOFF Eurocast range of cookware comprises some of the latest technology in lightweight, fat-free, non-stick cookware with detachable handles and oven proof glass lids. This exquisite and versatile range has been designed to deliver a product that provides its users with a means to healthy cooking on a PFOA and toxic free surface that is suitable for all hobs including induction!</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>info@londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/mcea-ltd-motorhome-caravan-engineers</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MCEA Ltd Motorhome &amp; Caravan Engineers</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>www.mcea.co.uk</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>THE MCEA: A training provider &amp; network of motorhome &amp; caravan engineers</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>services@mcea.co.uk</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>info@mcea.co.uk</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>01249651036</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/mckay-pet-supplies</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>McKay Pet Supplies</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>www.mckaypetsupplies.co.uk</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>mckaypetsupplies@sky.com</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>mckaypetsupplies@sky.com</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>info@mckaypetsupplies.co.uk</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/merlin-2-1-vacuum</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Merlin 2 - 1 Vacuum Cleaner</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>www.londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>The BergHOFF Eurocast range of cookware comprises some of the latest technology in lightweight, fat-free, non-stick cookware with detachable handles and oven proof glass lids. This exquisite and versatile range has been designed to deliver a product that provides its users with a means to healthy cooking on a PFOA and toxic free surface that is suitable for all hobs including induction!</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>info@londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/mgr-retail-ltd</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/mirider</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/motorhome-direct/motorhome-direct</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Motorhome Direct</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>www.howdeninsurance.co.uk</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Principal Partner of The British &amp; Irish Lions</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>info@howdeninsurance.co.uk</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/motorhome-matt-podcast/motorhome-matt-podcast</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Motorhome Matt Podcast</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>www.motorhomematt.co.uk</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Advice, industry insights and an impartial view into the world of motorhomes, caravans and campervans.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>info@motorhomematt.co.uk</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/nova-uk/nova-uk</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Nova UK</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>www.novauk.com</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>*FREE DELIVERY OVER £50*</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>info@novauk.com</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/opus-camper</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Opus Camper</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>www.opuscamper.co.uk</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>enquiries@opuscamper.co.uk</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>info@opuscamper.co.uk</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/pawdaw-of-london-ltd</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Pawdaw of London Ltd</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>www.pawdawoflondon.com</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Free shipping on orders over £60</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>info@pawdawoflondon.com</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/pennine-outdoor-leisure-ltd</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Pennine Outdoor Leisure Ltd</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>www.pennineoutdoorleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Please be advised that we can offer a pay back option on only Pennine or Conway Folding Campers from 10 years old to new.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>info@pennineoutdoorleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/plantlife</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Plantlife</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>www.plantlife.org.uk</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Come and be part of a global voice for wild plants and fungi</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>info@plantlife.org.uk</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/eternal-skincare/eternal-skincare-0</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Renapur</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>eternalskincare.com</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>At Eternal Skincare it is our passion to create the best natural skincare products available. Our range combines the luxurious and intensely hydrating benefits of organic Aloe Vera with 10 other natural ingredients.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>info@eternalskincare.com</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>0800 707 6883</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/revive</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/roodog-ebikes-ltd</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>RooDog Ebikes Ltd</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>www.roodog.co.uk</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>by Editorial Team | Jun 27, 2024</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>talktous@roodog.co.uk</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>info@roodog.co.uk</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/rspb/rspb</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>RSPB</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>www.rspb.org.uk</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>We’re delighted the Altyn Dala Conservation Initiative has won this prestigious prize, recognising our partnership work to conserve and restore the rare habitats of Kazakhstan.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>membership@rspb.org.uk</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>info@rspb.org.uk</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/scarflace-by-primrose-c/scarflace-by-primrose-c</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/shawbury-wine</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Shawbury Wine</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>www.shawbury.wine</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Welcome to Shawbury Wine</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>info@shawbury.wine</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/skechers-shoes-by-comfort-gear</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/sleepmaster-therapy-ltd</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Sleepmaster Therapy Ltd</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>www.sleepmastertherapyuk.co.uk</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t> TAP TO CALL</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>info@sleepmastertherapyuk.co.uk</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>info@sleepmastertherapyuk.co.uk</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>01174449643</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-great-british-cheese-compnay/the-great-british-cheese-compnay</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>The Great British Cheese Company</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>www.gbcheese.co.uk</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>The Great British Cheese Company - FREE delivery on orders over £50</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>info@gbcheese.co.uk</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-happy-caravanner/the-happy-caravanner</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>The Happy Caravanner</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>www.thehappycaravanner.co.uk</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Our products are created in the beautiful county of Northumberland.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>info@thehappycaravanner.co.uk</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-insurance-emporium/the-insurance-emporium</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>The Insurance Emporium</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>www.theinsuranceemporium.co.uk</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Take a look at the wide range of great products we offer and get protection for the things in life you love!</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>info@theinsuranceemporium.co.uk</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>03300244005</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/the-nomad-s-kitchen-</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-orthotic-works/the-orthotic-works</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>The Orthotic Works</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>www.theorthoticworks.co.uk</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Work with us</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>sales@theorthoticworks.co.uk</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>info@theorthoticworks.co.uk</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>+441904620120</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-outdoor-guide-foundation/the-outdoor-guide-foundation</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>The Outdoor Guide Foundation</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>www.theoutdoorguidefoundation.org</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Kits Delivered</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>gina@theoutdoorguide.co.uk</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>info@theoutdoorguidefoundation.org</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/tidal-robes/tidal-robes</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Tidal Robes</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>www.tidalrobes.co.uk</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>info@tidalrobes.co.uk</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/stretchy-lids</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ToastiBox</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>www.londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>The BergHOFF Eurocast range of cookware comprises some of the latest technology in lightweight, fat-free, non-stick cookware with detachable handles and oven proof glass lids. This exquisite and versatile range has been designed to deliver a product that provides its users with a means to healthy cooking on a PFOA and toxic free surface that is suitable for all hobs including induction!</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>info@londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/towcheck/towcheck</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TowCheck</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>www.towcheck.co.uk</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>The NCC is the official UK caravan trade body providing safe towing advice and matching for over 25 years</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>info@towcheck.co.uk</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/turmeric-blend</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Turmeric Blend - Nature Squared</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>www.naturesquared.co.uk</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Free Shipping on all UK Orders</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>info@naturesquared.co.uk</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>info@naturesquared.co.uk</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>+44 (0)333 012 4542</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/venter-trailers-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/venter-trailers-uk-ltd/venter-trailers-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/verisure/verisure</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Verisure</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>www.verisure.co.uk</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Verisure Rapid Response: 24/7 Monitored Security with Immediate Intervention</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>info@verisure.co.uk</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>08001585560</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/vinchip/vinchip</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>VinChip</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>www.vinchip.co.uk</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Construction Machinery and Plant</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>info@vinchip.co.uk</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/vinity-wines-ltd/vinity-wines-ltd</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Vinity Wines Ltd</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>www.vinitywines.co.uk</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>info@vinitywines.co.uk</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/warwickshire-clothing</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Warwickshire Clothing</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>www.warwickshireclothing.com</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Free shipping on all orders</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>info@warwickshireclothing.com</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>01212470020</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/white-hawk-products-ltd/white-hawk-products-ltd</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>White Hawk Products Ltd</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>www.whitehawkproducts.com</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>White Hawk Products</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>info@whitehawkproducts.com</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>07522333044</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/wineomania/wineomania</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Wineomania</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>www.wineomania.co.uk</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>info@wineomania.co.uk</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/wwf</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>WWF</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>www.wwf.org.uk</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Sign up to get the latest WWF news delivered straight to your inbox</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>info@wwf.org.uk</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Not listed</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/wyre-forest-books/wyre-forest-books</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
